--- a/study2/presentation_for_paper/study2a_residual_normality.xlsx
+++ b/study2/presentation_for_paper/study2a_residual_normality.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study2/presentation_for_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="402" documentId="8_{15C60E80-9A1A-48EA-A71C-165DF35CD085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA5A5767-BCFF-4D08-AFE9-525F699EBC71}"/>
+  <xr:revisionPtr revIDLastSave="443" documentId="8_{15C60E80-9A1A-48EA-A71C-165DF35CD085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DAEB6EF-C47F-4347-BD6E-50865B900C99}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9ED74C4E-2FEE-4727-A694-DD6A3E62DAA7}"/>
   </bookViews>
@@ -243,10 +243,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Study(Hypothesis)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Study2a (H4.1)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -267,12 +263,16 @@
 H4.4: Perceived Credibility --&gt; Overall Attitude Towards Ad</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Study (Hypothesis)</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,22 +291,23 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -318,17 +319,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -342,26 +339,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -391,70 +388,93 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>208643</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>96157</xdr:rowOff>
+      <xdr:colOff>597411</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57359</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A65F76-48E3-3105-DFD9-1528096FE576}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C38FFAB-7477-F6B4-8362-21A20AC7D092}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="254000" y="208643"/>
-          <a:ext cx="14478000" cy="10092871"/>
+          <a:off x="5270500" y="2514600"/>
+          <a:ext cx="9855711" cy="4172159"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>634998</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>586297</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>120845</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B8E7A41-4AF2-8EAE-8FEE-A6F9BF75DD82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5246686" y="6732586"/>
+          <a:ext cx="9833486" cy="3976884"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -913,139 +933,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E37A7FF-29BF-4061-BE3E-4B4F80131BE9}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="C1:H22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="A1:G6"/>
+    <sheetView showGridLines="0" topLeftCell="B5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.4140625" defaultRowHeight="113.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.75" style="2" customWidth="1"/>
-    <col min="3" max="6" width="34.08203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.33203125" style="1" customWidth="1"/>
-    <col min="8" max="15" width="34.08203125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="20.4140625" style="1"/>
+    <col min="1" max="1" width="7.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="0.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.75" style="2" customWidth="1"/>
+    <col min="5" max="8" width="34.08203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="1.4140625" style="1" customWidth="1"/>
+    <col min="10" max="17" width="34.08203125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="20.4140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.5" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="3:8" ht="7.5" customHeight="1"/>
+    <row r="2" spans="3:8" ht="24.5" customHeight="1">
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" ht="212" customHeight="1">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F3" s="5" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G3" s="5" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H3" s="5" t="e" vm="4">
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="188.5" customHeight="1">
-      <c r="A2" s="7" t="s">
+    <row r="4" spans="3:8" ht="212" customHeight="1">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="6" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D2" s="6" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E2" s="6" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F2" s="6" t="e" vm="4">
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F4" s="5" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G4" s="5" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H4" s="5" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="188.5" customHeight="1">
-      <c r="A3" s="7" t="s">
+    <row r="5" spans="3:8" ht="212" customHeight="1">
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F5" s="5" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G5" s="5" t="e" vm="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H5" s="5" t="e" vm="12">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" ht="212" customHeight="1">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6" t="e" vm="5">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D3" s="6" t="e" vm="6">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E3" s="6" t="e" vm="7">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F3" s="6" t="e" vm="8">
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5" t="e" vm="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F6" s="5" t="e" vm="14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G6" s="5" t="e" vm="15">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H6" s="5" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="188.5" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="6" t="e" vm="9">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D4" s="6" t="e" vm="10">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E4" s="6" t="e" vm="11">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F4" s="6" t="e" vm="12">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="188.5" customHeight="1">
-      <c r="A5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6" t="e" vm="13">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D5" s="6" t="e" vm="14">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E5" s="6" t="e" vm="15">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F5" s="6" t="e" vm="16">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="22" customHeight="1"/>
-    <row r="7" spans="1:6" ht="188.5" customHeight="1"/>
-    <row r="8" spans="1:6" ht="188.5" customHeight="1"/>
-    <row r="9" spans="1:6" ht="188.5" customHeight="1"/>
-    <row r="10" spans="1:6" ht="188.5" customHeight="1"/>
-    <row r="11" spans="1:6" ht="188.5" customHeight="1"/>
-    <row r="12" spans="1:6" ht="188.5" customHeight="1"/>
-    <row r="13" spans="1:6" ht="188.5" customHeight="1"/>
-    <row r="14" spans="1:6" ht="188.5" customHeight="1"/>
-    <row r="15" spans="1:6" ht="188.5" customHeight="1"/>
-    <row r="16" spans="1:6" ht="188.5" customHeight="1"/>
+    <row r="7" spans="3:8" ht="8.5" customHeight="1"/>
+    <row r="8" spans="3:8" ht="188.5" customHeight="1"/>
+    <row r="9" spans="3:8" ht="188.5" customHeight="1"/>
+    <row r="10" spans="3:8" ht="188.5" customHeight="1"/>
+    <row r="11" spans="3:8" ht="188.5" customHeight="1"/>
+    <row r="12" spans="3:8" ht="188.5" customHeight="1"/>
+    <row r="13" spans="3:8" ht="188.5" customHeight="1"/>
+    <row r="14" spans="3:8" ht="188.5" customHeight="1"/>
+    <row r="15" spans="3:8" ht="188.5" customHeight="1"/>
+    <row r="16" spans="3:8" ht="188.5" customHeight="1"/>
     <row r="17" ht="188.5" customHeight="1"/>
     <row r="18" ht="188.5" customHeight="1"/>
     <row r="19" ht="188.5" customHeight="1"/>
     <row r="20" ht="188.5" customHeight="1"/>
     <row r="21" ht="188.5" customHeight="1"/>
+    <row r="22" ht="188.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1056,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851638F2-D2E0-4D93-B5E6-D28E3434FF27}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
